--- a/data/PrijzenWielermanager.xlsx
+++ b/data/PrijzenWielermanager.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliasjanssen/Documents/wielermanager/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliasjanssen/Documents/wielermanager/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABEEAB2-8E46-4045-815A-4E4318F3090C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0342D3-D1FA-874F-9073-DEC18A475594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="1080" windowWidth="28240" windowHeight="17240" xr2:uid="{E19EC9F6-8020-6E4B-BFD1-3BBDE2F0AA92}"/>
+    <workbookView xWindow="7600" yWindow="1080" windowWidth="28240" windowHeight="17240" xr2:uid="{E19EC9F6-8020-6E4B-BFD1-3BBDE2F0AA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -2825,9 +2825,6 @@
     <t>Vinokurov Nicolas</t>
   </si>
   <si>
-    <t>Teutenberg Tim Thorn</t>
-  </si>
-  <si>
     <t>HONORE MIKKEL FROLICH</t>
   </si>
   <si>
@@ -2835,6 +2832,9 @@
   </si>
   <si>
     <t>Prijs</t>
+  </si>
+  <si>
+    <t>Teutenberg Tim Torn</t>
   </si>
 </sst>
 </file>
@@ -3208,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE18F4-F9FA-CF49-B4E8-869692F36C91}">
   <dimension ref="A1:B933"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="D346" sqref="D346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3219,10 +3219,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1" t="s">
         <v>931</v>
-      </c>
-      <c r="B1" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4883,7 +4883,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B209">
         <v>3</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B343">
         <v>3</v>

--- a/data/PrijzenWielermanager.xlsx
+++ b/data/PrijzenWielermanager.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliasjanssen/Documents/wielermanager/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0342D3-D1FA-874F-9073-DEC18A475594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE14031-C5F0-3542-9944-19BE3C00538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="1080" windowWidth="28240" windowHeight="17240" xr2:uid="{E19EC9F6-8020-6E4B-BFD1-3BBDE2F0AA92}"/>
+    <workbookView xWindow="16600" yWindow="1520" windowWidth="28240" windowHeight="17240" xr2:uid="{E19EC9F6-8020-6E4B-BFD1-3BBDE2F0AA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="941">
   <si>
     <t>POGACAR Tadej</t>
   </si>
@@ -1022,9 +1022,6 @@
     <t>Blikra Erlend</t>
   </si>
   <si>
-    <t>Strand Hagenes Per</t>
-  </si>
-  <si>
     <t>GOOSSENS Kobe</t>
   </si>
   <si>
@@ -1517,9 +1514,6 @@
     <t>Stockman Abram</t>
   </si>
   <si>
-    <t>Resell Eirik</t>
-  </si>
-  <si>
     <t>Urianstad Bugge Martin</t>
   </si>
   <si>
@@ -1553,9 +1547,6 @@
     <t>Kelemen Petr</t>
   </si>
   <si>
-    <t>Stake Laengen Vegard</t>
-  </si>
-  <si>
     <t>Gazzoli Michele</t>
   </si>
   <si>
@@ -1871,9 +1862,6 @@
     <t>Toupalik Adam</t>
   </si>
   <si>
-    <t>Iversby Hvideberg Jonas</t>
-  </si>
-  <si>
     <t>Kulset Johannes</t>
   </si>
   <si>
@@ -1991,9 +1979,6 @@
     <t>Svestad-Bårdseng Embrel</t>
   </si>
   <si>
-    <t>Thierry Paul</t>
-  </si>
-  <si>
     <t>Tjotta Martin</t>
   </si>
   <si>
@@ -2195,9 +2180,6 @@
     <t>Steinhauser Georg</t>
   </si>
   <si>
-    <t>Todome Yushi</t>
-  </si>
-  <si>
     <t>Van der Lee Jordi</t>
   </si>
   <si>
@@ -2303,9 +2285,6 @@
     <t>Rodriguez Óscar</t>
   </si>
   <si>
-    <t>Schmidt Artem</t>
-  </si>
-  <si>
     <t>Barré Louis</t>
   </si>
   <si>
@@ -2402,9 +2381,6 @@
     <t>Barrenetxea Jon</t>
   </si>
   <si>
-    <t>Moro Manilo</t>
-  </si>
-  <si>
     <t>Mühlberger Gregor</t>
   </si>
   <si>
@@ -2417,18 +2393,12 @@
     <t>Rangel Victor</t>
   </si>
   <si>
-    <t>Armitt Harmish</t>
-  </si>
-  <si>
     <t>Colladon Jacopo</t>
   </si>
   <si>
     <t>Dauge Lucas</t>
   </si>
   <si>
-    <t>de Graeve Quiten</t>
-  </si>
-  <si>
     <t>Lozano David</t>
   </si>
   <si>
@@ -2519,9 +2489,6 @@
     <t>González David</t>
   </si>
   <si>
-    <t>Parisini Niccolò</t>
-  </si>
-  <si>
     <t>Pidcock Joseph</t>
   </si>
   <si>
@@ -2618,9 +2585,6 @@
     <t>Boulahoite Rayan</t>
   </si>
   <si>
-    <t>Brunel Alexis</t>
-  </si>
-  <si>
     <t>Dauphin Florian</t>
   </si>
   <si>
@@ -2835,6 +2799,66 @@
   </si>
   <si>
     <t>Teutenberg Tim Torn</t>
+  </si>
+  <si>
+    <t>Vito BRAET</t>
+  </si>
+  <si>
+    <t>Parisini Nicolò</t>
+  </si>
+  <si>
+    <t>Moro Manlio</t>
+  </si>
+  <si>
+    <t>Thierry Pierre</t>
+  </si>
+  <si>
+    <t>Resell Eirik Nordsaeter</t>
+  </si>
+  <si>
+    <t>Hvideberg  Jonas Iversby</t>
+  </si>
+  <si>
+    <t>Hagenes Per Strand</t>
+  </si>
+  <si>
+    <t>Huub ARTZ</t>
+  </si>
+  <si>
+    <t>Todome Yuhi</t>
+  </si>
+  <si>
+    <t>Elia VIVIANI</t>
+  </si>
+  <si>
+    <t>Blume Levy William</t>
+  </si>
+  <si>
+    <t>Brunel Alexys</t>
+  </si>
+  <si>
+    <t>Jarno BELLENS</t>
+  </si>
+  <si>
+    <t>Michiel COPPENS</t>
+  </si>
+  <si>
+    <t>Robbe MELLAERTS</t>
+  </si>
+  <si>
+    <t>Martins PLUTO</t>
+  </si>
+  <si>
+    <t>Armitt Hamish</t>
+  </si>
+  <si>
+    <t>de Graeve Quinten</t>
+  </si>
+  <si>
+    <t>Laengen Vegard Stake</t>
+  </si>
+  <si>
+    <t>Shmidt Artem</t>
   </si>
 </sst>
 </file>
@@ -3206,10 +3230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE18F4-F9FA-CF49-B4E8-869692F36C91}">
-  <dimension ref="A1:B933"/>
+  <dimension ref="A1:B941"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="D346" sqref="D346"/>
+    <sheetView tabSelected="1" topLeftCell="A654" workbookViewId="0">
+      <selection activeCell="G666" sqref="G666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3219,10 +3243,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="B1" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4171,7 +4195,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>930</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -4179,7 +4203,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -4187,7 +4211,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -4195,7 +4219,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -4203,7 +4227,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -4211,7 +4235,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -4219,7 +4243,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -4227,7 +4251,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -4235,7 +4259,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -4243,7 +4267,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129">
         <v>4</v>
@@ -4251,7 +4275,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -4259,7 +4283,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131">
         <v>4</v>
@@ -4267,7 +4291,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132">
         <v>4</v>
@@ -4275,7 +4299,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -4283,7 +4307,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -4291,7 +4315,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -4299,7 +4323,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136">
         <v>4</v>
@@ -4307,7 +4331,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -4315,7 +4339,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138">
         <v>4</v>
@@ -4323,7 +4347,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -4331,7 +4355,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -4339,7 +4363,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -4347,7 +4371,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142">
         <v>4</v>
@@ -4355,7 +4379,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143">
         <v>4</v>
@@ -4363,7 +4387,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144">
         <v>4</v>
@@ -4371,7 +4395,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145">
         <v>4</v>
@@ -4379,7 +4403,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146">
         <v>4</v>
@@ -4387,7 +4411,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147">
         <v>4</v>
@@ -4395,7 +4419,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148">
         <v>4</v>
@@ -4403,7 +4427,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -4411,7 +4435,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150">
         <v>4</v>
@@ -4419,7 +4443,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151">
         <v>4</v>
@@ -4427,7 +4451,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -4435,7 +4459,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153">
         <v>4</v>
@@ -4443,7 +4467,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -4451,7 +4475,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155">
         <v>4</v>
@@ -4459,7 +4483,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156">
         <v>4</v>
@@ -4467,7 +4491,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -4475,7 +4499,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158">
         <v>4</v>
@@ -4483,7 +4507,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159">
         <v>4</v>
@@ -4491,7 +4515,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160">
         <v>4</v>
@@ -4499,7 +4523,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -4507,7 +4531,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -4515,7 +4539,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -4523,7 +4547,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -4531,7 +4555,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -4539,7 +4563,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -4547,7 +4571,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B167">
         <v>4</v>
@@ -4555,7 +4579,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B168">
         <v>4</v>
@@ -4563,7 +4587,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -4571,7 +4595,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B170">
         <v>4</v>
@@ -4579,7 +4603,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -4587,7 +4611,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -4595,7 +4619,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B173">
         <v>4</v>
@@ -4603,7 +4627,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -4611,7 +4635,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -4619,7 +4643,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -4627,7 +4651,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -4635,7 +4659,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B178">
         <v>4</v>
@@ -4643,7 +4667,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -4651,7 +4675,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180">
         <v>4</v>
@@ -4659,7 +4683,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -4667,7 +4691,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -4675,7 +4699,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B183">
         <v>4</v>
@@ -4683,7 +4707,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -4691,15 +4715,15 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B185">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -4707,7 +4731,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -4715,7 +4739,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B188">
         <v>3</v>
@@ -4723,7 +4747,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B189">
         <v>3</v>
@@ -4731,7 +4755,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B190">
         <v>3</v>
@@ -4739,7 +4763,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B191">
         <v>3</v>
@@ -4747,7 +4771,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -4755,7 +4779,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -4763,7 +4787,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -4771,7 +4795,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B195">
         <v>3</v>
@@ -4779,7 +4803,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B196">
         <v>3</v>
@@ -4787,7 +4811,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B197">
         <v>3</v>
@@ -4795,7 +4819,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B198">
         <v>3</v>
@@ -4803,7 +4827,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B199">
         <v>3</v>
@@ -4811,7 +4835,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B200">
         <v>3</v>
@@ -4819,7 +4843,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B201">
         <v>3</v>
@@ -4827,7 +4851,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B202">
         <v>3</v>
@@ -4835,7 +4859,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B203">
         <v>3</v>
@@ -4843,7 +4867,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B204">
         <v>3</v>
@@ -4851,7 +4875,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B205">
         <v>3</v>
@@ -4859,7 +4883,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B206">
         <v>3</v>
@@ -4867,7 +4891,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B207">
         <v>3</v>
@@ -4875,7 +4899,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B208">
         <v>3</v>
@@ -4883,7 +4907,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>929</v>
+        <v>206</v>
       </c>
       <c r="B209">
         <v>3</v>
@@ -4891,7 +4915,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>207</v>
+        <v>917</v>
       </c>
       <c r="B210">
         <v>3</v>
@@ -4899,7 +4923,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B211">
         <v>3</v>
@@ -4907,7 +4931,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B212">
         <v>3</v>
@@ -4915,7 +4939,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B213">
         <v>3</v>
@@ -4923,7 +4947,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B214">
         <v>3</v>
@@ -4931,7 +4955,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B215">
         <v>3</v>
@@ -4939,7 +4963,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B216">
         <v>3</v>
@@ -4947,7 +4971,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B217">
         <v>3</v>
@@ -4955,7 +4979,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B218">
         <v>3</v>
@@ -4963,7 +4987,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B219">
         <v>3</v>
@@ -4971,7 +4995,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B220">
         <v>3</v>
@@ -4979,7 +5003,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B221">
         <v>3</v>
@@ -4987,7 +5011,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B222">
         <v>3</v>
@@ -4995,7 +5019,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B223">
         <v>3</v>
@@ -5003,7 +5027,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B224">
         <v>3</v>
@@ -5011,7 +5035,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B225">
         <v>3</v>
@@ -5019,7 +5043,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -5027,7 +5051,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -5035,7 +5059,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -5043,7 +5067,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -5051,7 +5075,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B230">
         <v>3</v>
@@ -5059,7 +5083,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B231">
         <v>3</v>
@@ -5067,7 +5091,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B232">
         <v>3</v>
@@ -5075,7 +5099,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B233">
         <v>3</v>
@@ -5083,7 +5107,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B234">
         <v>3</v>
@@ -5091,7 +5115,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B235">
         <v>3</v>
@@ -5099,7 +5123,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B236">
         <v>3</v>
@@ -5107,7 +5131,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B237">
         <v>3</v>
@@ -5115,7 +5139,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B238">
         <v>3</v>
@@ -5123,7 +5147,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B239">
         <v>3</v>
@@ -5131,7 +5155,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B240">
         <v>3</v>
@@ -5139,7 +5163,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B241">
         <v>3</v>
@@ -5147,7 +5171,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B242">
         <v>3</v>
@@ -5155,7 +5179,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B243">
         <v>3</v>
@@ -5163,7 +5187,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B244">
         <v>3</v>
@@ -5171,7 +5195,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B245">
         <v>3</v>
@@ -5179,7 +5203,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B246">
         <v>3</v>
@@ -5187,7 +5211,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B247">
         <v>3</v>
@@ -5195,7 +5219,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B248">
         <v>3</v>
@@ -5203,7 +5227,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B249">
         <v>3</v>
@@ -5211,7 +5235,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B250">
         <v>3</v>
@@ -5219,7 +5243,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B251">
         <v>3</v>
@@ -5227,7 +5251,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B252">
         <v>3</v>
@@ -5235,7 +5259,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B253">
         <v>3</v>
@@ -5243,7 +5267,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B254">
         <v>3</v>
@@ -5251,7 +5275,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B255">
         <v>3</v>
@@ -5259,7 +5283,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B256">
         <v>3</v>
@@ -5267,7 +5291,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -5275,7 +5299,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B258">
         <v>3</v>
@@ -5283,7 +5307,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B259">
         <v>3</v>
@@ -5291,7 +5315,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B260">
         <v>3</v>
@@ -5299,7 +5323,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B261">
         <v>3</v>
@@ -5307,7 +5331,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B262">
         <v>3</v>
@@ -5315,7 +5339,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B263">
         <v>3</v>
@@ -5323,7 +5347,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B264">
         <v>3</v>
@@ -5331,7 +5355,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B265">
         <v>3</v>
@@ -5339,7 +5363,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B266">
         <v>3</v>
@@ -5347,7 +5371,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B267">
         <v>3</v>
@@ -5355,7 +5379,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B268">
         <v>3</v>
@@ -5363,7 +5387,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B269">
         <v>3</v>
@@ -5371,7 +5395,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B270">
         <v>3</v>
@@ -5379,7 +5403,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B271">
         <v>3</v>
@@ -5387,7 +5411,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>269</v>
+        <v>928</v>
       </c>
       <c r="B272">
         <v>3</v>
@@ -5395,7 +5419,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B273">
         <v>3</v>
@@ -5403,7 +5427,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B274">
         <v>3</v>
@@ -5411,7 +5435,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B275">
         <v>3</v>
@@ -5419,7 +5443,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B276">
         <v>3</v>
@@ -5427,7 +5451,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B277">
         <v>3</v>
@@ -5435,7 +5459,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B278">
         <v>3</v>
@@ -5443,7 +5467,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B279">
         <v>3</v>
@@ -5451,7 +5475,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B280">
         <v>3</v>
@@ -5459,7 +5483,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B281">
         <v>3</v>
@@ -5467,7 +5491,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B282">
         <v>3</v>
@@ -5475,7 +5499,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B283">
         <v>3</v>
@@ -5483,7 +5507,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B284">
         <v>3</v>
@@ -5491,7 +5515,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B285">
         <v>3</v>
@@ -5499,7 +5523,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B286">
         <v>3</v>
@@ -5507,7 +5531,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B287">
         <v>3</v>
@@ -5515,7 +5539,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B288">
         <v>3</v>
@@ -5523,7 +5547,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B289">
         <v>3</v>
@@ -5531,7 +5555,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B290">
         <v>3</v>
@@ -5539,7 +5563,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B291">
         <v>3</v>
@@ -5547,7 +5571,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B292">
         <v>3</v>
@@ -5555,7 +5579,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B293">
         <v>3</v>
@@ -5563,7 +5587,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B294">
         <v>3</v>
@@ -5571,7 +5595,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B295">
         <v>3</v>
@@ -5579,7 +5603,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B296">
         <v>3</v>
@@ -5587,7 +5611,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B297">
         <v>3</v>
@@ -5595,7 +5619,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B298">
         <v>3</v>
@@ -5603,7 +5627,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B299">
         <v>3</v>
@@ -5611,7 +5635,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B300">
         <v>3</v>
@@ -5619,7 +5643,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B301">
         <v>3</v>
@@ -5627,7 +5651,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B302">
         <v>3</v>
@@ -5635,7 +5659,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B303">
         <v>3</v>
@@ -5643,7 +5667,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B304">
         <v>3</v>
@@ -5651,7 +5675,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B305">
         <v>3</v>
@@ -5659,7 +5683,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B306">
         <v>3</v>
@@ -5667,7 +5691,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B307">
         <v>3</v>
@@ -5675,7 +5699,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B308">
         <v>3</v>
@@ -5683,7 +5707,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B309">
         <v>3</v>
@@ -5691,7 +5715,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B310">
         <v>3</v>
@@ -5699,7 +5723,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B311">
         <v>3</v>
@@ -5707,7 +5731,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B312">
         <v>3</v>
@@ -5715,7 +5739,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B313">
         <v>3</v>
@@ -5723,7 +5747,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B314">
         <v>3</v>
@@ -5731,7 +5755,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B315">
         <v>3</v>
@@ -5739,7 +5763,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B316">
         <v>3</v>
@@ -5747,7 +5771,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -5755,7 +5779,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B318">
         <v>3</v>
@@ -5763,7 +5787,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B319">
         <v>3</v>
@@ -5771,7 +5795,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B320">
         <v>3</v>
@@ -5779,7 +5803,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B321">
         <v>3</v>
@@ -5787,7 +5811,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B322">
         <v>3</v>
@@ -5795,7 +5819,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B323">
         <v>3</v>
@@ -5803,7 +5827,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B324">
         <v>3</v>
@@ -5811,7 +5835,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B325">
         <v>3</v>
@@ -5819,7 +5843,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B326">
         <v>3</v>
@@ -5827,7 +5851,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B327">
         <v>3</v>
@@ -5835,7 +5859,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B328">
         <v>3</v>
@@ -5843,7 +5867,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B329">
         <v>3</v>
@@ -5851,7 +5875,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B330">
         <v>3</v>
@@ -5859,7 +5883,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B331">
         <v>3</v>
@@ -5867,7 +5891,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B332">
         <v>3</v>
@@ -5875,7 +5899,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>330</v>
+        <v>927</v>
       </c>
       <c r="B333">
         <v>3</v>
@@ -5883,7 +5907,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B334">
         <v>3</v>
@@ -5891,7 +5915,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B335">
         <v>3</v>
@@ -5899,7 +5923,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B336">
         <v>3</v>
@@ -5907,7 +5931,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B337">
         <v>3</v>
@@ -5915,7 +5939,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>335</v>
+        <v>921</v>
       </c>
       <c r="B338">
         <v>3</v>
@@ -5923,7 +5947,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B339">
         <v>3</v>
@@ -5931,7 +5955,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B340">
         <v>3</v>
@@ -5939,7 +5963,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B341">
         <v>3</v>
@@ -5947,7 +5971,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B342">
         <v>3</v>
@@ -5955,7 +5979,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>932</v>
+        <v>336</v>
       </c>
       <c r="B343">
         <v>3</v>
@@ -5963,7 +5987,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B344">
         <v>3</v>
@@ -5971,7 +5995,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B345">
         <v>3</v>
@@ -5979,7 +6003,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>342</v>
+        <v>920</v>
       </c>
       <c r="B346">
         <v>3</v>
@@ -5987,7 +6011,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B347">
         <v>3</v>
@@ -5995,7 +6019,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B348">
         <v>3</v>
@@ -6003,7 +6027,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B349">
         <v>3</v>
@@ -6011,7 +6035,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B350">
         <v>3</v>
@@ -6019,7 +6043,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B351">
         <v>3</v>
@@ -6027,7 +6051,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B352">
         <v>3</v>
@@ -6035,7 +6059,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B353">
         <v>3</v>
@@ -6043,7 +6067,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B354">
         <v>3</v>
@@ -6051,7 +6075,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B355">
         <v>3</v>
@@ -6059,7 +6083,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B356">
         <v>3</v>
@@ -6067,7 +6091,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B357">
         <v>3</v>
@@ -6075,7 +6099,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B358">
         <v>3</v>
@@ -6083,7 +6107,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B359">
         <v>3</v>
@@ -6091,7 +6115,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B360">
         <v>3</v>
@@ -6099,7 +6123,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B361">
         <v>3</v>
@@ -6107,7 +6131,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B362">
         <v>3</v>
@@ -6115,7 +6139,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B363">
         <v>3</v>
@@ -6123,7 +6147,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B364">
         <v>3</v>
@@ -6131,7 +6155,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B365">
         <v>3</v>
@@ -6139,7 +6163,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B366">
         <v>3</v>
@@ -6147,7 +6171,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B367">
         <v>3</v>
@@ -6155,7 +6179,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B368">
         <v>3</v>
@@ -6163,7 +6187,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B369">
         <v>3</v>
@@ -6171,7 +6195,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B370">
         <v>3</v>
@@ -6179,7 +6203,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B371">
         <v>3</v>
@@ -6187,7 +6211,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B372">
         <v>3</v>
@@ -6195,7 +6219,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B373">
         <v>3</v>
@@ -6203,7 +6227,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B374">
         <v>3</v>
@@ -6211,7 +6235,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B375">
         <v>3</v>
@@ -6219,7 +6243,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B376">
         <v>3</v>
@@ -6227,7 +6251,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B377">
         <v>3</v>
@@ -6235,7 +6259,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B378">
         <v>3</v>
@@ -6243,7 +6267,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B379">
         <v>3</v>
@@ -6251,7 +6275,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B380">
         <v>3</v>
@@ -6259,7 +6283,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B381">
         <v>3</v>
@@ -6267,7 +6291,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B382">
         <v>3</v>
@@ -6275,7 +6299,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B383">
         <v>3</v>
@@ -6283,7 +6307,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B384">
         <v>3</v>
@@ -6291,7 +6315,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B385">
         <v>3</v>
@@ -6299,7 +6323,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B386">
         <v>3</v>
@@ -6307,7 +6331,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B387">
         <v>3</v>
@@ -6315,7 +6339,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B388">
         <v>3</v>
@@ -6323,7 +6347,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B389">
         <v>3</v>
@@ -6331,7 +6355,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B390">
         <v>3</v>
@@ -6339,31 +6363,31 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B391">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B392">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -6371,7 +6395,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B395">
         <v>2</v>
@@ -6379,7 +6403,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B396">
         <v>2</v>
@@ -6387,7 +6411,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B397">
         <v>2</v>
@@ -6395,7 +6419,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B398">
         <v>2</v>
@@ -6403,7 +6427,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B399">
         <v>2</v>
@@ -6411,7 +6435,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B400">
         <v>2</v>
@@ -6419,7 +6443,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B401">
         <v>2</v>
@@ -6427,7 +6451,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B402">
         <v>2</v>
@@ -6435,7 +6459,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -6443,7 +6467,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B404">
         <v>2</v>
@@ -6451,7 +6475,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B405">
         <v>2</v>
@@ -6459,7 +6483,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B406">
         <v>2</v>
@@ -6467,7 +6491,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B407">
         <v>2</v>
@@ -6475,7 +6499,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B408">
         <v>2</v>
@@ -6483,7 +6507,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -6491,7 +6515,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -6499,7 +6523,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B411">
         <v>2</v>
@@ -6507,7 +6531,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B412">
         <v>2</v>
@@ -6515,7 +6539,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B413">
         <v>2</v>
@@ -6523,7 +6547,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B414">
         <v>2</v>
@@ -6531,7 +6555,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B415">
         <v>2</v>
@@ -6539,7 +6563,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -6547,7 +6571,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B417">
         <v>2</v>
@@ -6555,7 +6579,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B418">
         <v>2</v>
@@ -6563,7 +6587,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -6571,7 +6595,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B420">
         <v>2</v>
@@ -6579,7 +6603,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B421">
         <v>2</v>
@@ -6587,7 +6611,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B422">
         <v>2</v>
@@ -6595,7 +6619,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B423">
         <v>2</v>
@@ -6603,7 +6627,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B424">
         <v>2</v>
@@ -6611,7 +6635,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B425">
         <v>2</v>
@@ -6619,7 +6643,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B426">
         <v>2</v>
@@ -6627,7 +6651,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B427">
         <v>2</v>
@@ -6635,7 +6659,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B428">
         <v>2</v>
@@ -6643,7 +6667,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -6651,7 +6675,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -6659,7 +6683,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B431">
         <v>2</v>
@@ -6667,7 +6691,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B432">
         <v>2</v>
@@ -6675,7 +6699,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B433">
         <v>2</v>
@@ -6683,7 +6707,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -6691,7 +6715,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B435">
         <v>2</v>
@@ -6699,7 +6723,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B436">
         <v>2</v>
@@ -6707,7 +6731,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B437">
         <v>2</v>
@@ -6715,7 +6739,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B438">
         <v>2</v>
@@ -6723,7 +6747,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B439">
         <v>2</v>
@@ -6731,7 +6755,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -6739,7 +6763,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -6747,7 +6771,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B442">
         <v>2</v>
@@ -6755,7 +6779,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B443">
         <v>2</v>
@@ -6763,7 +6787,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B444">
         <v>2</v>
@@ -6771,7 +6795,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B445">
         <v>2</v>
@@ -6779,7 +6803,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B446">
         <v>2</v>
@@ -6787,7 +6811,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B447">
         <v>2</v>
@@ -6795,7 +6819,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -6803,7 +6827,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B449">
         <v>2</v>
@@ -6811,7 +6835,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B450">
         <v>2</v>
@@ -6819,7 +6843,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B451">
         <v>2</v>
@@ -6827,7 +6851,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B452">
         <v>2</v>
@@ -6835,7 +6859,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B453">
         <v>2</v>
@@ -6843,7 +6867,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B454">
         <v>2</v>
@@ -6851,7 +6875,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B455">
         <v>2</v>
@@ -6859,7 +6883,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B456">
         <v>2</v>
@@ -6867,7 +6891,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -6875,7 +6899,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -6883,7 +6907,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B459">
         <v>2</v>
@@ -6891,7 +6915,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B460">
         <v>2</v>
@@ -6899,7 +6923,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B461">
         <v>2</v>
@@ -6907,7 +6931,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B462">
         <v>2</v>
@@ -6915,7 +6939,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B463">
         <v>2</v>
@@ -6923,7 +6947,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -6931,7 +6955,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B465">
         <v>2</v>
@@ -6939,7 +6963,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B466">
         <v>2</v>
@@ -6947,7 +6971,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B467">
         <v>2</v>
@@ -6955,7 +6979,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B468">
         <v>2</v>
@@ -6963,7 +6987,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B469">
         <v>2</v>
@@ -6971,7 +6995,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B470">
         <v>2</v>
@@ -6979,7 +7003,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B471">
         <v>2</v>
@@ -6987,7 +7011,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B472">
         <v>2</v>
@@ -6995,7 +7019,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B473">
         <v>2</v>
@@ -7003,7 +7027,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B474">
         <v>2</v>
@@ -7011,7 +7035,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B475">
         <v>2</v>
@@ -7019,7 +7043,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B476">
         <v>2</v>
@@ -7027,7 +7051,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B477">
         <v>2</v>
@@ -7035,7 +7059,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B478">
         <v>2</v>
@@ -7043,7 +7067,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B479">
         <v>2</v>
@@ -7051,7 +7075,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B480">
         <v>2</v>
@@ -7059,7 +7083,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B481">
         <v>2</v>
@@ -7067,7 +7091,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B482">
         <v>2</v>
@@ -7075,7 +7099,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -7083,7 +7107,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -7091,7 +7115,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B485">
         <v>2</v>
@@ -7099,7 +7123,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B486">
         <v>2</v>
@@ -7107,7 +7131,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B487">
         <v>2</v>
@@ -7115,7 +7139,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B488">
         <v>2</v>
@@ -7123,7 +7147,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B489">
         <v>2</v>
@@ -7131,7 +7155,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B490">
         <v>2</v>
@@ -7139,7 +7163,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B491">
         <v>2</v>
@@ -7147,7 +7171,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B492">
         <v>2</v>
@@ -7155,7 +7179,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B493">
         <v>2</v>
@@ -7163,7 +7187,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B494">
         <v>2</v>
@@ -7171,7 +7195,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B495">
         <v>2</v>
@@ -7179,7 +7203,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B496">
         <v>2</v>
@@ -7187,7 +7211,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B497">
         <v>2</v>
@@ -7195,7 +7219,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -7203,7 +7227,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B499">
         <v>2</v>
@@ -7211,7 +7235,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>496</v>
+        <v>925</v>
       </c>
       <c r="B500">
         <v>2</v>
@@ -7219,7 +7243,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -7227,7 +7251,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -7235,7 +7259,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B503">
         <v>2</v>
@@ -7243,7 +7267,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>500</v>
+        <v>936</v>
       </c>
       <c r="B504">
         <v>2</v>
@@ -7251,7 +7275,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B505">
         <v>2</v>
@@ -7259,7 +7283,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B506">
         <v>2</v>
@@ -7267,7 +7291,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>503</v>
+        <v>935</v>
       </c>
       <c r="B507">
         <v>2</v>
@@ -7275,7 +7299,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B508">
         <v>2</v>
@@ -7283,7 +7307,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B509">
         <v>2</v>
@@ -7291,7 +7315,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>506</v>
+        <v>934</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -7299,7 +7323,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B511">
         <v>2</v>
@@ -7307,7 +7331,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B512">
         <v>2</v>
@@ -7315,7 +7339,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>509</v>
+        <v>933</v>
       </c>
       <c r="B513">
         <v>2</v>
@@ -7323,7 +7347,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B514">
         <v>2</v>
@@ -7331,7 +7355,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B515">
         <v>2</v>
@@ -7339,7 +7363,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>512</v>
+        <v>939</v>
       </c>
       <c r="B516">
         <v>2</v>
@@ -7347,7 +7371,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B517">
         <v>2</v>
@@ -7355,7 +7379,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B518">
         <v>2</v>
@@ -7363,7 +7387,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B519">
         <v>2</v>
@@ -7371,7 +7395,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B520">
         <v>2</v>
@@ -7379,7 +7403,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B521">
         <v>2</v>
@@ -7387,7 +7411,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -7395,7 +7419,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B523">
         <v>2</v>
@@ -7403,7 +7427,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B524">
         <v>2</v>
@@ -7411,7 +7435,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B525">
         <v>2</v>
@@ -7419,7 +7443,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B526">
         <v>2</v>
@@ -7427,7 +7451,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B527">
         <v>2</v>
@@ -7435,7 +7459,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B528">
         <v>2</v>
@@ -7443,7 +7467,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B529">
         <v>2</v>
@@ -7451,7 +7475,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B530">
         <v>2</v>
@@ -7459,7 +7483,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B531">
         <v>2</v>
@@ -7467,7 +7491,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B532">
         <v>2</v>
@@ -7475,7 +7499,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B533">
         <v>2</v>
@@ -7483,7 +7507,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -7491,7 +7515,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B535">
         <v>2</v>
@@ -7499,7 +7523,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B536">
         <v>2</v>
@@ -7507,7 +7531,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B537">
         <v>2</v>
@@ -7515,7 +7539,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B538">
         <v>2</v>
@@ -7523,7 +7547,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B539">
         <v>2</v>
@@ -7531,7 +7555,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B540">
         <v>2</v>
@@ -7539,7 +7563,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B541">
         <v>2</v>
@@ -7547,7 +7571,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B542">
         <v>2</v>
@@ -7555,7 +7579,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B543">
         <v>2</v>
@@ -7563,7 +7587,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B544">
         <v>2</v>
@@ -7571,7 +7595,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B545">
         <v>2</v>
@@ -7579,7 +7603,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B546">
         <v>2</v>
@@ -7587,7 +7611,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B547">
         <v>2</v>
@@ -7595,7 +7619,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B548">
         <v>2</v>
@@ -7603,7 +7627,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B549">
         <v>2</v>
@@ -7611,7 +7635,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B550">
         <v>2</v>
@@ -7619,7 +7643,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B551">
         <v>2</v>
@@ -7627,7 +7651,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>548</v>
+        <v>931</v>
       </c>
       <c r="B552">
         <v>2</v>
@@ -7635,7 +7659,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="B553">
         <v>2</v>
@@ -7643,7 +7667,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="B554">
         <v>2</v>
@@ -7651,7 +7675,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B555">
         <v>2</v>
@@ -7659,7 +7683,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="B556">
         <v>2</v>
@@ -7667,7 +7691,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="B557">
         <v>2</v>
@@ -7675,7 +7699,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B558">
         <v>2</v>
@@ -7683,7 +7707,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B559">
         <v>2</v>
@@ -7691,7 +7715,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="B560">
         <v>2</v>
@@ -7699,7 +7723,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="B561">
         <v>2</v>
@@ -7707,7 +7731,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="B562">
         <v>2</v>
@@ -7715,7 +7739,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B563">
         <v>2</v>
@@ -7723,7 +7747,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="B564">
         <v>2</v>
@@ -7731,7 +7755,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="B565">
         <v>2</v>
@@ -7739,7 +7763,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="B566">
         <v>2</v>
@@ -7747,7 +7771,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="B567">
         <v>2</v>
@@ -7755,7 +7779,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B568">
         <v>2</v>
@@ -7763,7 +7787,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B569">
         <v>2</v>
@@ -7771,7 +7795,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="B570">
         <v>2</v>
@@ -7779,7 +7803,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="B571">
         <v>2</v>
@@ -7787,7 +7811,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="B572">
         <v>2</v>
@@ -7795,7 +7819,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B573">
         <v>2</v>
@@ -7803,7 +7827,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="B574">
         <v>2</v>
@@ -7811,7 +7835,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B575">
         <v>2</v>
@@ -7819,7 +7843,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B576">
         <v>2</v>
@@ -7827,7 +7851,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="B577">
         <v>2</v>
@@ -7835,7 +7859,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="B578">
         <v>2</v>
@@ -7843,7 +7867,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B579">
         <v>2</v>
@@ -7851,7 +7875,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="B580">
         <v>2</v>
@@ -7859,7 +7883,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="B581">
         <v>2</v>
@@ -7867,7 +7891,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B582">
         <v>2</v>
@@ -7875,7 +7899,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="B583">
         <v>2</v>
@@ -7883,7 +7907,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B584">
         <v>2</v>
@@ -7891,7 +7915,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B585">
         <v>2</v>
@@ -7899,7 +7923,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="B586">
         <v>2</v>
@@ -7907,7 +7931,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="B587">
         <v>2</v>
@@ -7915,7 +7939,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B588">
         <v>2</v>
@@ -7923,7 +7947,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="B589">
         <v>2</v>
@@ -7931,7 +7955,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B590">
         <v>2</v>
@@ -7939,7 +7963,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="B591">
         <v>2</v>
@@ -7947,7 +7971,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="B592">
         <v>2</v>
@@ -7955,7 +7979,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B593">
         <v>2</v>
@@ -7963,7 +7987,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B594">
         <v>2</v>
@@ -7971,7 +7995,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="B595">
         <v>2</v>
@@ -7979,7 +8003,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="B596">
         <v>2</v>
@@ -7987,7 +8011,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="B597">
         <v>2</v>
@@ -7995,7 +8019,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="B598">
         <v>2</v>
@@ -8003,7 +8027,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="B599">
         <v>2</v>
@@ -8011,7 +8035,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="B600">
         <v>2</v>
@@ -8019,7 +8043,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B601">
         <v>2</v>
@@ -8027,7 +8051,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="B602">
         <v>2</v>
@@ -8035,7 +8059,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="B603">
         <v>2</v>
@@ -8043,7 +8067,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B604">
         <v>2</v>
@@ -8051,7 +8075,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="B605">
         <v>2</v>
@@ -8059,7 +8083,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="B606">
         <v>2</v>
@@ -8067,7 +8091,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="B607">
         <v>2</v>
@@ -8075,7 +8099,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="B608">
         <v>2</v>
@@ -8083,7 +8107,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="B609">
         <v>2</v>
@@ -8091,7 +8115,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="B610">
         <v>2</v>
@@ -8099,7 +8123,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -8107,7 +8131,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="B612">
         <v>2</v>
@@ -8115,7 +8139,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="B613">
         <v>2</v>
@@ -8123,7 +8147,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="B614">
         <v>2</v>
@@ -8131,7 +8155,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="B615">
         <v>2</v>
@@ -8139,7 +8163,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="B616">
         <v>2</v>
@@ -8147,7 +8171,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="B617">
         <v>2</v>
@@ -8155,7 +8179,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="B618">
         <v>2</v>
@@ -8163,7 +8187,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="B619">
         <v>2</v>
@@ -8171,7 +8195,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="B620">
         <v>2</v>
@@ -8179,7 +8203,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B621">
         <v>2</v>
@@ -8187,7 +8211,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="B622">
         <v>2</v>
@@ -8195,7 +8219,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>619</v>
+        <v>926</v>
       </c>
       <c r="B623">
         <v>2</v>
@@ -8203,7 +8227,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="B624">
         <v>2</v>
@@ -8211,7 +8235,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="B625">
         <v>2</v>
@@ -8219,7 +8243,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="B626">
         <v>2</v>
@@ -8227,7 +8251,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="B627">
         <v>2</v>
@@ -8235,7 +8259,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="B628">
         <v>2</v>
@@ -8243,7 +8267,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="B629">
         <v>2</v>
@@ -8251,7 +8275,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="B630">
         <v>2</v>
@@ -8259,7 +8283,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="B631">
         <v>2</v>
@@ -8267,7 +8291,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="B632">
         <v>2</v>
@@ -8275,7 +8299,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="B633">
         <v>2</v>
@@ -8283,7 +8307,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="B634">
         <v>2</v>
@@ -8291,7 +8315,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="B635">
         <v>2</v>
@@ -8299,7 +8323,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B636">
         <v>2</v>
@@ -8307,7 +8331,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="B637">
         <v>2</v>
@@ -8315,7 +8339,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B638">
         <v>2</v>
@@ -8323,7 +8347,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="B639">
         <v>2</v>
@@ -8331,7 +8355,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="B640">
         <v>2</v>
@@ -8339,7 +8363,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="B641">
         <v>2</v>
@@ -8347,7 +8371,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="B642">
         <v>2</v>
@@ -8355,7 +8379,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="B643">
         <v>2</v>
@@ -8363,7 +8387,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B644">
         <v>2</v>
@@ -8371,7 +8395,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="B645">
         <v>2</v>
@@ -8379,7 +8403,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="B646">
         <v>2</v>
@@ -8387,7 +8411,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B647">
         <v>2</v>
@@ -8395,7 +8419,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B648">
         <v>2</v>
@@ -8403,7 +8427,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B649">
         <v>2</v>
@@ -8411,7 +8435,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B650">
         <v>2</v>
@@ -8419,7 +8443,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B651">
         <v>2</v>
@@ -8427,7 +8451,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B652">
         <v>2</v>
@@ -8435,7 +8459,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B653">
         <v>2</v>
@@ -8443,7 +8467,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="B654">
         <v>2</v>
@@ -8451,7 +8475,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="B655">
         <v>2</v>
@@ -8459,7 +8483,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B656">
         <v>2</v>
@@ -8467,7 +8491,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="B657">
         <v>2</v>
@@ -8475,7 +8499,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="B658">
         <v>2</v>
@@ -8483,7 +8507,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="B659">
         <v>2</v>
@@ -8491,7 +8515,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="B660">
         <v>2</v>
@@ -8499,7 +8523,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="B661">
         <v>2</v>
@@ -8507,7 +8531,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="B662">
         <v>2</v>
@@ -8515,7 +8539,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>659</v>
+        <v>924</v>
       </c>
       <c r="B663">
         <v>2</v>
@@ -8523,7 +8547,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="B664">
         <v>2</v>
@@ -8531,7 +8555,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="B665">
         <v>2</v>
@@ -8539,7 +8563,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="B666">
         <v>2</v>
@@ -8547,7 +8571,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="B667">
         <v>2</v>
@@ -8555,7 +8579,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="B668">
         <v>2</v>
@@ -8563,7 +8587,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="B669">
         <v>2</v>
@@ -8571,7 +8595,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="B670">
         <v>2</v>
@@ -8579,7 +8603,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="B671">
         <v>2</v>
@@ -8587,7 +8611,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="B672">
         <v>2</v>
@@ -8595,7 +8619,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="B673">
         <v>2</v>
@@ -8603,7 +8627,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="B674">
         <v>2</v>
@@ -8611,7 +8635,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="B675">
         <v>2</v>
@@ -8619,7 +8643,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="B676">
         <v>2</v>
@@ -8627,7 +8651,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="B677">
         <v>2</v>
@@ -8635,7 +8659,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="B678">
         <v>2</v>
@@ -8643,7 +8667,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="B679">
         <v>2</v>
@@ -8651,7 +8675,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="B680">
         <v>2</v>
@@ -8659,7 +8683,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="B681">
         <v>2</v>
@@ -8667,7 +8691,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="B682">
         <v>2</v>
@@ -8675,7 +8699,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B683">
         <v>2</v>
@@ -8683,7 +8707,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="B684">
         <v>2</v>
@@ -8691,7 +8715,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="B685">
         <v>2</v>
@@ -8699,7 +8723,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="B686">
         <v>2</v>
@@ -8707,7 +8731,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="B687">
         <v>2</v>
@@ -8715,7 +8739,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="B688">
         <v>2</v>
@@ -8723,7 +8747,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="B689">
         <v>2</v>
@@ -8731,7 +8755,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="B690">
         <v>2</v>
@@ -8739,7 +8763,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="B691">
         <v>2</v>
@@ -8747,7 +8771,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="B692">
         <v>2</v>
@@ -8755,7 +8779,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="B693">
         <v>2</v>
@@ -8763,7 +8787,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="B694">
         <v>2</v>
@@ -8771,7 +8795,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="B695">
         <v>2</v>
@@ -8779,7 +8803,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="B696">
         <v>2</v>
@@ -8787,7 +8811,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="B697">
         <v>2</v>
@@ -8795,7 +8819,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="B698">
         <v>2</v>
@@ -8803,7 +8827,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="B699">
         <v>2</v>
@@ -8811,7 +8835,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="B700">
         <v>2</v>
@@ -8819,7 +8843,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="B701">
         <v>2</v>
@@ -8827,7 +8851,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="B702">
         <v>2</v>
@@ -8835,7 +8859,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="B703">
         <v>2</v>
@@ -8843,7 +8867,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="B704">
         <v>2</v>
@@ -8851,7 +8875,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="B705">
         <v>2</v>
@@ -8859,7 +8883,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="B706">
         <v>2</v>
@@ -8867,7 +8891,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="B707">
         <v>2</v>
@@ -8875,7 +8899,7 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="B708">
         <v>2</v>
@@ -8883,7 +8907,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="B709">
         <v>2</v>
@@ -8891,7 +8915,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="B710">
         <v>2</v>
@@ -8899,7 +8923,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="B711">
         <v>2</v>
@@ -8907,7 +8931,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="B712">
         <v>2</v>
@@ -8915,7 +8939,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="B713">
         <v>2</v>
@@ -8923,7 +8947,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="B714">
         <v>2</v>
@@ -8931,7 +8955,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="B715">
         <v>2</v>
@@ -8939,7 +8963,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="B716">
         <v>2</v>
@@ -8947,7 +8971,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>372</v>
+        <v>700</v>
       </c>
       <c r="B717">
         <v>2</v>
@@ -8955,7 +8979,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B718">
         <v>2</v>
@@ -8963,7 +8987,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B719">
         <v>2</v>
@@ -8971,7 +8995,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="B720">
         <v>2</v>
@@ -8979,7 +9003,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="B721">
         <v>2</v>
@@ -8987,7 +9011,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="B722">
         <v>2</v>
@@ -8995,7 +9019,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="B723">
         <v>2</v>
@@ -9003,7 +9027,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="B724">
         <v>2</v>
@@ -9011,7 +9035,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>720</v>
+        <v>371</v>
       </c>
       <c r="B725">
         <v>2</v>
@@ -9019,7 +9043,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="B726">
         <v>2</v>
@@ -9027,7 +9051,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="B727">
         <v>2</v>
@@ -9035,7 +9059,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="B728">
         <v>2</v>
@@ -9043,7 +9067,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="B729">
         <v>2</v>
@@ -9051,7 +9075,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="B730">
         <v>2</v>
@@ -9059,7 +9083,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="B731">
         <v>2</v>
@@ -9067,7 +9091,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>727</v>
+        <v>929</v>
       </c>
       <c r="B732">
         <v>2</v>
@@ -9075,7 +9099,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="B733">
         <v>2</v>
@@ -9083,7 +9107,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="B734">
         <v>2</v>
@@ -9091,7 +9115,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="B735">
         <v>2</v>
@@ -9099,7 +9123,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="B736">
         <v>2</v>
@@ -9107,7 +9131,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="B737">
         <v>2</v>
@@ -9115,7 +9139,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="B738">
         <v>2</v>
@@ -9123,7 +9147,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="B739">
         <v>2</v>
@@ -9131,7 +9155,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="B740">
         <v>2</v>
@@ -9139,7 +9163,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="B741">
         <v>2</v>
@@ -9147,7 +9171,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="B742">
         <v>2</v>
@@ -9155,7 +9179,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="B743">
         <v>2</v>
@@ -9163,7 +9187,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="B744">
         <v>2</v>
@@ -9171,7 +9195,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="B745">
         <v>2</v>
@@ -9179,7 +9203,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="B746">
         <v>2</v>
@@ -9187,7 +9211,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="B747">
         <v>2</v>
@@ -9195,7 +9219,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="B748">
         <v>2</v>
@@ -9203,7 +9227,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="B749">
         <v>2</v>
@@ -9211,7 +9235,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="B750">
         <v>2</v>
@@ -9219,7 +9243,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="B751">
         <v>2</v>
@@ -9227,7 +9251,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="B752">
         <v>2</v>
@@ -9235,7 +9259,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="B753">
         <v>2</v>
@@ -9243,7 +9267,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="B754">
         <v>2</v>
@@ -9251,7 +9275,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="B755">
         <v>2</v>
@@ -9259,7 +9283,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="B756">
         <v>2</v>
@@ -9267,7 +9291,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="B757">
         <v>2</v>
@@ -9275,7 +9299,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="B758">
         <v>2</v>
@@ -9283,7 +9307,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="B759">
         <v>2</v>
@@ -9291,7 +9315,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="B760">
         <v>2</v>
@@ -9299,7 +9323,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="B761">
         <v>2</v>
@@ -9307,7 +9331,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="B762">
         <v>2</v>
@@ -9315,7 +9339,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="B763">
         <v>2</v>
@@ -9323,7 +9347,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="B764">
         <v>2</v>
@@ -9331,7 +9355,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="B765">
         <v>2</v>
@@ -9339,7 +9363,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="B766">
         <v>2</v>
@@ -9347,7 +9371,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="B767">
         <v>2</v>
@@ -9355,7 +9379,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>763</v>
+        <v>940</v>
       </c>
       <c r="B768">
         <v>2</v>
@@ -9363,7 +9387,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="B769">
         <v>2</v>
@@ -9371,7 +9395,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="B770">
         <v>2</v>
@@ -9379,7 +9403,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="B771">
         <v>2</v>
@@ -9387,7 +9411,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="B772">
         <v>2</v>
@@ -9395,7 +9419,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="B773">
         <v>2</v>
@@ -9403,7 +9427,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="B774">
         <v>2</v>
@@ -9411,7 +9435,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="B775">
         <v>2</v>
@@ -9419,7 +9443,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="B776">
         <v>2</v>
@@ -9427,7 +9451,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="B777">
         <v>2</v>
@@ -9435,7 +9459,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="B778">
         <v>2</v>
@@ -9443,7 +9467,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="B779">
         <v>2</v>
@@ -9451,7 +9475,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="B780">
         <v>2</v>
@@ -9459,7 +9483,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="B781">
         <v>2</v>
@@ -9467,7 +9491,7 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="B782">
         <v>2</v>
@@ -9475,7 +9499,7 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="B783">
         <v>2</v>
@@ -9483,7 +9507,7 @@
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="B784">
         <v>2</v>
@@ -9491,7 +9515,7 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="B785">
         <v>2</v>
@@ -9499,7 +9523,7 @@
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="B786">
         <v>2</v>
@@ -9507,7 +9531,7 @@
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="B787">
         <v>2</v>
@@ -9515,7 +9539,7 @@
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="B788">
         <v>2</v>
@@ -9523,7 +9547,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="B789">
         <v>2</v>
@@ -9531,7 +9555,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="B790">
         <v>2</v>
@@ -9539,7 +9563,7 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="B791">
         <v>2</v>
@@ -9547,7 +9571,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="B792">
         <v>2</v>
@@ -9555,7 +9579,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="B793">
         <v>2</v>
@@ -9563,7 +9587,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="B794">
         <v>2</v>
@@ -9571,7 +9595,7 @@
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="B795">
         <v>2</v>
@@ -9579,7 +9603,7 @@
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="B796">
         <v>2</v>
@@ -9587,7 +9611,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="B797">
         <v>2</v>
@@ -9595,7 +9619,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="B798">
         <v>2</v>
@@ -9603,7 +9627,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="B799">
         <v>2</v>
@@ -9611,7 +9635,7 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="B800">
         <v>2</v>
@@ -9619,7 +9643,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>796</v>
+        <v>923</v>
       </c>
       <c r="B801">
         <v>2</v>
@@ -9627,7 +9651,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="B802">
         <v>2</v>
@@ -9635,7 +9659,7 @@
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="B803">
         <v>2</v>
@@ -9643,7 +9667,7 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="B804">
         <v>2</v>
@@ -9651,7 +9675,7 @@
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="B805">
         <v>2</v>
@@ -9659,7 +9683,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>801</v>
+        <v>937</v>
       </c>
       <c r="B806">
         <v>2</v>
@@ -9667,7 +9691,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="B807">
         <v>2</v>
@@ -9675,7 +9699,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="B808">
         <v>2</v>
@@ -9683,7 +9707,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>804</v>
+        <v>938</v>
       </c>
       <c r="B809">
         <v>2</v>
@@ -9691,7 +9715,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="B810">
         <v>2</v>
@@ -9699,7 +9723,7 @@
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="B811">
         <v>2</v>
@@ -9707,7 +9731,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="B812">
         <v>2</v>
@@ -9715,7 +9739,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="B813">
         <v>2</v>
@@ -9723,7 +9747,7 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="B814">
         <v>2</v>
@@ -9731,7 +9755,7 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="B815">
         <v>2</v>
@@ -9739,7 +9763,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="B816">
         <v>2</v>
@@ -9747,7 +9771,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="B817">
         <v>2</v>
@@ -9755,7 +9779,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="B818">
         <v>2</v>
@@ -9763,7 +9787,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="B819">
         <v>2</v>
@@ -9771,7 +9795,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="B820">
         <v>2</v>
@@ -9779,7 +9803,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="B821">
         <v>2</v>
@@ -9787,7 +9811,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="B822">
         <v>2</v>
@@ -9795,7 +9819,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="B823">
         <v>2</v>
@@ -9803,7 +9827,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="B824">
         <v>2</v>
@@ -9811,7 +9835,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="B825">
         <v>2</v>
@@ -9819,7 +9843,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="B826">
         <v>2</v>
@@ -9827,7 +9851,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="B827">
         <v>2</v>
@@ -9835,7 +9859,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="B828">
         <v>2</v>
@@ -9843,7 +9867,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="B829">
         <v>2</v>
@@ -9851,7 +9875,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="B830">
         <v>2</v>
@@ -9859,7 +9883,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="B831">
         <v>2</v>
@@ -9867,7 +9891,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="B832">
         <v>2</v>
@@ -9875,7 +9899,7 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="B833">
         <v>2</v>
@@ -9883,7 +9907,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="B834">
         <v>2</v>
@@ -9891,7 +9915,7 @@
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="B835">
         <v>2</v>
@@ -9899,7 +9923,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="B836">
         <v>2</v>
@@ -9907,7 +9931,7 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="B837">
         <v>2</v>
@@ -9915,7 +9939,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="B838">
         <v>2</v>
@@ -9923,7 +9947,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="B839">
         <v>2</v>
@@ -9931,7 +9955,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>835</v>
+        <v>922</v>
       </c>
       <c r="B840">
         <v>2</v>
@@ -9939,7 +9963,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="B841">
         <v>2</v>
@@ -9947,7 +9971,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="B842">
         <v>2</v>
@@ -9955,7 +9979,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="B843">
         <v>2</v>
@@ -9963,7 +9987,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
       <c r="B844">
         <v>2</v>
@@ -9971,7 +9995,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="B845">
         <v>2</v>
@@ -9979,7 +10003,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
       <c r="B846">
         <v>2</v>
@@ -9987,7 +10011,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="B847">
         <v>2</v>
@@ -9995,7 +10019,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="B848">
         <v>2</v>
@@ -10003,7 +10027,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="B849">
         <v>2</v>
@@ -10011,7 +10035,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="B850">
         <v>2</v>
@@ -10019,7 +10043,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="B851">
         <v>2</v>
@@ -10027,7 +10051,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="B852">
         <v>2</v>
@@ -10035,7 +10059,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="B853">
         <v>2</v>
@@ -10043,7 +10067,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
       <c r="B854">
         <v>2</v>
@@ -10051,7 +10075,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="B855">
         <v>2</v>
@@ -10059,7 +10083,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="B856">
         <v>2</v>
@@ -10067,7 +10091,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="B857">
         <v>2</v>
@@ -10075,7 +10099,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
       <c r="B858">
         <v>2</v>
@@ -10083,7 +10107,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="B859">
         <v>2</v>
@@ -10091,7 +10115,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="B860">
         <v>2</v>
@@ -10099,7 +10123,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
       <c r="B861">
         <v>2</v>
@@ -10107,7 +10131,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="B862">
         <v>2</v>
@@ -10115,7 +10139,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
       <c r="B863">
         <v>2</v>
@@ -10123,7 +10147,7 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="B864">
         <v>2</v>
@@ -10131,7 +10155,7 @@
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="B865">
         <v>2</v>
@@ -10139,7 +10163,7 @@
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="B866">
         <v>2</v>
@@ -10147,7 +10171,7 @@
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="B867">
         <v>2</v>
@@ -10155,7 +10179,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="B868">
         <v>2</v>
@@ -10163,7 +10187,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
       <c r="B869">
         <v>2</v>
@@ -10171,7 +10195,7 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
       <c r="B870">
         <v>2</v>
@@ -10179,7 +10203,7 @@
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>866</v>
+        <v>847</v>
       </c>
       <c r="B871">
         <v>2</v>
@@ -10187,7 +10211,7 @@
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
       <c r="B872">
         <v>2</v>
@@ -10195,7 +10219,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>868</v>
+        <v>932</v>
       </c>
       <c r="B873">
         <v>2</v>
@@ -10203,7 +10227,7 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="B874">
         <v>2</v>
@@ -10211,7 +10235,7 @@
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="B875">
         <v>2</v>
@@ -10219,7 +10243,7 @@
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="B876">
         <v>2</v>
@@ -10227,7 +10251,7 @@
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="B877">
         <v>2</v>
@@ -10235,7 +10259,7 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>873</v>
+        <v>853</v>
       </c>
       <c r="B878">
         <v>2</v>
@@ -10243,7 +10267,7 @@
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="B879">
         <v>2</v>
@@ -10251,7 +10275,7 @@
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="B880">
         <v>2</v>
@@ -10259,7 +10283,7 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="B881">
         <v>2</v>
@@ -10267,7 +10291,7 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
       <c r="B882">
         <v>2</v>
@@ -10275,7 +10299,7 @@
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="B883">
         <v>2</v>
@@ -10283,7 +10307,7 @@
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="B884">
         <v>2</v>
@@ -10291,7 +10315,7 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="B885">
         <v>2</v>
@@ -10299,7 +10323,7 @@
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="B886">
         <v>2</v>
@@ -10307,7 +10331,7 @@
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
       <c r="B887">
         <v>2</v>
@@ -10315,7 +10339,7 @@
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="B888">
         <v>2</v>
@@ -10323,7 +10347,7 @@
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="B889">
         <v>2</v>
@@ -10331,7 +10355,7 @@
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
       <c r="B890">
         <v>2</v>
@@ -10339,7 +10363,7 @@
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
       <c r="B891">
         <v>2</v>
@@ -10347,7 +10371,7 @@
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
       <c r="B892">
         <v>2</v>
@@ -10355,7 +10379,7 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
       <c r="B893">
         <v>2</v>
@@ -10363,7 +10387,7 @@
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
       <c r="B894">
         <v>2</v>
@@ -10371,7 +10395,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="B895">
         <v>2</v>
@@ -10379,7 +10403,7 @@
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="B896">
         <v>2</v>
@@ -10387,7 +10411,7 @@
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="B897">
         <v>2</v>
@@ -10395,7 +10419,7 @@
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="B898">
         <v>2</v>
@@ -10403,7 +10427,7 @@
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="B899">
         <v>2</v>
@@ -10411,7 +10435,7 @@
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="B900">
         <v>2</v>
@@ -10419,7 +10443,7 @@
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="B901">
         <v>2</v>
@@ -10427,7 +10451,7 @@
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="B902">
         <v>2</v>
@@ -10435,7 +10459,7 @@
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="B903">
         <v>2</v>
@@ -10443,7 +10467,7 @@
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="B904">
         <v>2</v>
@@ -10451,7 +10475,7 @@
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="B905">
         <v>2</v>
@@ -10459,7 +10483,7 @@
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="B906">
         <v>2</v>
@@ -10467,7 +10491,7 @@
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
       <c r="B907">
         <v>2</v>
@@ -10475,7 +10499,7 @@
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
       <c r="B908">
         <v>2</v>
@@ -10483,7 +10507,7 @@
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="B909">
         <v>2</v>
@@ -10491,7 +10515,7 @@
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>905</v>
+        <v>885</v>
       </c>
       <c r="B910">
         <v>2</v>
@@ -10499,7 +10523,7 @@
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="B911">
         <v>2</v>
@@ -10507,7 +10531,7 @@
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
       <c r="B912">
         <v>2</v>
@@ -10515,7 +10539,7 @@
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
       <c r="B913">
         <v>2</v>
@@ -10523,7 +10547,7 @@
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="B914">
         <v>2</v>
@@ -10531,7 +10555,7 @@
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="B915">
         <v>2</v>
@@ -10539,7 +10563,7 @@
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
       <c r="B916">
         <v>2</v>
@@ -10547,7 +10571,7 @@
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="B917">
         <v>2</v>
@@ -10555,7 +10579,7 @@
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
       <c r="B918">
         <v>2</v>
@@ -10563,7 +10587,7 @@
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
       <c r="B919">
         <v>2</v>
@@ -10571,7 +10595,7 @@
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>915</v>
+        <v>895</v>
       </c>
       <c r="B920">
         <v>2</v>
@@ -10579,7 +10603,7 @@
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="B921">
         <v>2</v>
@@ -10587,7 +10611,7 @@
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>917</v>
+        <v>897</v>
       </c>
       <c r="B922">
         <v>2</v>
@@ -10595,7 +10619,7 @@
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
       <c r="B923">
         <v>2</v>
@@ -10603,7 +10627,7 @@
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>919</v>
+        <v>899</v>
       </c>
       <c r="B924">
         <v>2</v>
@@ -10611,7 +10635,7 @@
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="B925">
         <v>2</v>
@@ -10619,7 +10643,7 @@
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>921</v>
+        <v>901</v>
       </c>
       <c r="B926">
         <v>2</v>
@@ -10627,7 +10651,7 @@
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>922</v>
+        <v>902</v>
       </c>
       <c r="B927">
         <v>2</v>
@@ -10635,7 +10659,7 @@
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>923</v>
+        <v>903</v>
       </c>
       <c r="B928">
         <v>2</v>
@@ -10643,7 +10667,7 @@
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>924</v>
+        <v>904</v>
       </c>
       <c r="B929">
         <v>2</v>
@@ -10651,7 +10675,7 @@
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
       <c r="B930">
         <v>2</v>
@@ -10659,7 +10683,7 @@
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>926</v>
+        <v>906</v>
       </c>
       <c r="B931">
         <v>2</v>
@@ -10667,7 +10691,7 @@
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="B932">
         <v>2</v>
@@ -10675,9 +10699,73 @@
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>928</v>
+        <v>908</v>
       </c>
       <c r="B933">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>909</v>
+      </c>
+      <c r="B934">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>910</v>
+      </c>
+      <c r="B935">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>911</v>
+      </c>
+      <c r="B936">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>912</v>
+      </c>
+      <c r="B937">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>913</v>
+      </c>
+      <c r="B938">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>914</v>
+      </c>
+      <c r="B939">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>915</v>
+      </c>
+      <c r="B940">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>916</v>
+      </c>
+      <c r="B941">
         <v>2</v>
       </c>
     </row>

--- a/data/PrijzenWielermanager.xlsx
+++ b/data/PrijzenWielermanager.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliasjanssen/Documents/wielermanager/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE14031-C5F0-3542-9944-19BE3C00538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE995D-F680-AB45-ACC7-A76EBAE01149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16600" yWindow="1520" windowWidth="28240" windowHeight="17240" xr2:uid="{E19EC9F6-8020-6E4B-BFD1-3BBDE2F0AA92}"/>
+    <workbookView xWindow="20820" yWindow="3120" windowWidth="28240" windowHeight="17240" xr2:uid="{E19EC9F6-8020-6E4B-BFD1-3BBDE2F0AA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -2801,9 +2801,6 @@
     <t>Teutenberg Tim Torn</t>
   </si>
   <si>
-    <t>Vito BRAET</t>
-  </si>
-  <si>
     <t>Parisini Nicolò</t>
   </si>
   <si>
@@ -2813,12 +2810,6 @@
     <t>Thierry Pierre</t>
   </si>
   <si>
-    <t>Resell Eirik Nordsaeter</t>
-  </si>
-  <si>
-    <t>Hvideberg  Jonas Iversby</t>
-  </si>
-  <si>
     <t>Hagenes Per Strand</t>
   </si>
   <si>
@@ -2859,6 +2850,15 @@
   </si>
   <si>
     <t>Shmidt Artem</t>
+  </si>
+  <si>
+    <t>Braet Vito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas Iversby Hvideberg  </t>
+  </si>
+  <si>
+    <t>Eirik Nordsaeter Resell</t>
   </si>
 </sst>
 </file>
@@ -3232,8 +3232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE18F4-F9FA-CF49-B4E8-869692F36C91}">
   <dimension ref="A1:B941"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A654" workbookViewId="0">
-      <selection activeCell="G666" sqref="G666"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="F500" sqref="F500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B272">
         <v>3</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B333">
         <v>3</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="B338">
         <v>3</v>
@@ -7235,7 +7235,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>925</v>
+        <v>940</v>
       </c>
       <c r="B500">
         <v>2</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B504">
         <v>2</v>
@@ -7291,7 +7291,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B507">
         <v>2</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -7339,7 +7339,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B513">
         <v>2</v>
@@ -7363,7 +7363,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B516">
         <v>2</v>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B552">
         <v>2</v>
@@ -8219,7 +8219,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
       <c r="B623">
         <v>2</v>
@@ -8539,7 +8539,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B663">
         <v>2</v>
@@ -9091,7 +9091,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B732">
         <v>2</v>
@@ -9379,7 +9379,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B768">
         <v>2</v>
@@ -9643,7 +9643,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B801">
         <v>2</v>
@@ -9683,7 +9683,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B806">
         <v>2</v>
@@ -9707,7 +9707,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B809">
         <v>2</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B840">
         <v>2</v>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B873">
         <v>2</v>
